--- a/biology/Zoologie/Chalcidoidea/Chalcidoidea.xlsx
+++ b/biology/Zoologie/Chalcidoidea/Chalcidoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chalcidiens (Chalcidoidea ou chalcidoïdes en français) forment une super-famille qui regroupe une vingtaine de familles composées en large majorité d'insectes entomophages, principalement des guêpes. Ce sont des hyménoptères térébrants représentant 22 000 espèces au niveau mondial, soit autour des 10 % de la totalité des hyménoptères.
 Certaines espèces sont phytophages tels les Agaonidae, Blastophaga sur les figues, les Callinomidae seminivores, quelques Eurytomidae cécidogènes ainsi que les Tanaostigmatidae.
@@ -513,7 +525,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Chalcidoidea ont en commun avec le groupe des Proctotrupoidea les caractères suivants :
 antennes coudées entre le scape et le pédicelle (à l'exception des Eucharitidae) ;
@@ -551,7 +565,9 @@
           <t>Liste des familles de Chalcidoidea</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Agaonidae (Walker, 1848) : phytophages (fécondation des Ficus) ; 757 espèces décrites
 Aphelinidae (Thomson, 1876) : parasites de pucerons, cochenilles, aleurodes; hyperparasite de cochenilles ; 1100 espèces décrites
